--- a/ResultatsBancTest/BCompression.xlsx
+++ b/ResultatsBancTest/BCompression.xlsx
@@ -5,19 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/louis-maxencehotton/Desktop/ProjetCapteurGraphite2022-LM-TL/ResultatsBancTest/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/louis-maxencehotton/Desktop/2021-22_CapteurGraphite_HOTTON_LAMY/ResultatsBancTest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35008713-873B-1240-B2D0-7DD20A392FEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D5B570A-EB40-D044-ADF7-46F56915CB51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{6623DBB8-08BF-FA44-866E-EDE9B9E4EFD2}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" xr2:uid="{6623DBB8-08BF-FA44-866E-EDE9B9E4EFD2}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -227,6 +224,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
+            <c:intercept val="0"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -1273,684 +1271,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Feuil1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="H2">
-            <v>0</v>
-          </cell>
-          <cell r="U2">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="H3">
-            <v>0.35198873636044459</v>
-          </cell>
-          <cell r="U3">
-            <v>1.5662650602409638</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="H4">
-            <v>0.28178936245156772</v>
-          </cell>
-          <cell r="U4">
-            <v>3.1325301204819276</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="H5">
-            <v>7.0596540769494523E-2</v>
-          </cell>
-          <cell r="U5">
-            <v>4.6987951807228914</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="H6">
-            <v>0.14109347442680789</v>
-          </cell>
-          <cell r="U6">
-            <v>6.2650602409638552</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="H7">
-            <v>-7.0696359137512335E-2</v>
-          </cell>
-          <cell r="U7">
-            <v>7.831325301204819</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="H8">
-            <v>-0.35448422545195979</v>
-          </cell>
-          <cell r="U8">
-            <v>9.3975903614457827</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="H9">
-            <v>-0.28338646829613912</v>
-          </cell>
-          <cell r="U9">
-            <v>10.963855421686747</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="H10">
-            <v>-0.56838365896978926</v>
-          </cell>
-          <cell r="U10">
-            <v>12.53012048192771</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="H11">
-            <v>-0.56838365896980514</v>
-          </cell>
-          <cell r="U11">
-            <v>14.096385542168674</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="H12">
-            <v>-0.63988624244579595</v>
-          </cell>
-          <cell r="U12">
-            <v>15.662650602409638</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="H13">
-            <v>-0.78319686721252391</v>
-          </cell>
-          <cell r="U13">
-            <v>17.228915662650603</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="H14">
-            <v>-1.4695340501792087</v>
-          </cell>
-          <cell r="U14">
-            <v>18.795180722891565</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="H15">
-            <v>-1.4695340501792087</v>
-          </cell>
-          <cell r="U15">
-            <v>20.361445783132531</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="H16">
-            <v>-1.7247574559827379</v>
-          </cell>
-          <cell r="U16">
-            <v>21.927710843373493</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="H17">
-            <v>-1.8345323741007089</v>
-          </cell>
-          <cell r="U17">
-            <v>23.493975903614459</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="H18">
-            <v>-2.1652832912306046</v>
-          </cell>
-          <cell r="U18">
-            <v>25.060240963855421</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="H19">
-            <v>-2.0915975477821793</v>
-          </cell>
-          <cell r="U19">
-            <v>26.626506024096386</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="H20">
-            <v>-1.8345323741007089</v>
-          </cell>
-          <cell r="U20">
-            <v>28.192771084337348</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="H21">
-            <v>-1.9812680115273671</v>
-          </cell>
-          <cell r="U21">
-            <v>29.759036144578314</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="H22">
-            <v>-2.4610930148389456</v>
-          </cell>
-          <cell r="U22">
-            <v>31.325301204819276</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="H23">
-            <v>-2.4240231548480362</v>
-          </cell>
-          <cell r="U23">
-            <v>32.891566265060241</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="H24">
-            <v>-2.8706395348837277</v>
-          </cell>
-          <cell r="U24">
-            <v>34.457831325301207</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="H25">
-            <v>-2.7959331880900491</v>
-          </cell>
-          <cell r="U25">
-            <v>36.024096385542165</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="H26">
-            <v>-2.8706395348837113</v>
-          </cell>
-          <cell r="U26">
-            <v>37.590361445783131</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="H27">
-            <v>-3.0203784570596701</v>
-          </cell>
-          <cell r="U27">
-            <v>39.156626506024097</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="H28">
-            <v>-2.7213352685050864</v>
-          </cell>
-          <cell r="U28">
-            <v>40.722891566265062</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="H29">
-            <v>-3.3588901058780607</v>
-          </cell>
-          <cell r="U29">
-            <v>42.289156626506021</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="H30">
-            <v>-3.547915142648117</v>
-          </cell>
-          <cell r="U30">
-            <v>43.855421686746986</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="H31">
-            <v>-3.6237188872620867</v>
-          </cell>
-          <cell r="U31">
-            <v>45.421686746987952</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="H32">
-            <v>-3.585803146725222</v>
-          </cell>
-          <cell r="U32">
-            <v>46.987951807228917</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="H33">
-            <v>-4.0808823529411846</v>
-          </cell>
-          <cell r="U33">
-            <v>48.554216867469883</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="H34">
-            <v>-4.2341678939617164</v>
-          </cell>
-          <cell r="U34">
-            <v>50.120481927710841</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="H35">
-            <v>-4.5420974889217218</v>
-          </cell>
-          <cell r="U35">
-            <v>51.686746987951807</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="H36">
-            <v>-5.0463821892393366</v>
-          </cell>
-          <cell r="U36">
-            <v>53.253012048192772</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="H37">
-            <v>-4.9684835001853873</v>
-          </cell>
-          <cell r="U37">
-            <v>54.819277108433738</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="H38">
-            <v>-4.9295774647887329</v>
-          </cell>
-          <cell r="U38">
-            <v>56.385542168674696</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="H39">
-            <v>-5.4769001490312883</v>
-          </cell>
-          <cell r="U39">
-            <v>57.951807228915662</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="H40">
-            <v>-5.5949272659455396</v>
-          </cell>
-          <cell r="U40">
-            <v>59.518072289156628</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="H41">
-            <v>-6.1890472618154373</v>
-          </cell>
-          <cell r="U41">
-            <v>61.084337349397593</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="H42">
-            <v>-5.990265818045664</v>
-          </cell>
-          <cell r="U42">
-            <v>62.650602409638552</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="H43">
-            <v>-5.8317757009345854</v>
-          </cell>
-          <cell r="U43">
-            <v>64.216867469879517</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="H44">
-            <v>-6.2687687687687612</v>
-          </cell>
-          <cell r="U44">
-            <v>65.783132530120483</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="H45">
-            <v>-6.5086531226486102</v>
-          </cell>
-          <cell r="U45">
-            <v>67.349397590361448</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="H46">
-            <v>-6.5086531226485924</v>
-          </cell>
-          <cell r="U46">
-            <v>68.915662650602414</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="H47">
-            <v>-6.4685972169988784</v>
-          </cell>
-          <cell r="U47">
-            <v>70.481927710843379</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="H48">
-            <v>-6.7093856012061792</v>
-          </cell>
-          <cell r="U48">
-            <v>72.048192771084331</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="H49">
-            <v>-6.9916855631141379</v>
-          </cell>
-          <cell r="U49">
-            <v>73.614457831325296</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="H50">
-            <v>-6.9108761329305244</v>
-          </cell>
-          <cell r="U50">
-            <v>75.180722891566262</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="H51">
-            <v>-6.9512655836796258</v>
-          </cell>
-          <cell r="U51">
-            <v>76.746987951807228</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="H52">
-            <v>-6.9108761329305066</v>
-          </cell>
-          <cell r="U52">
-            <v>78.313253012048193</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="H53">
-            <v>-7.4791192103265027</v>
-          </cell>
-          <cell r="U53">
-            <v>79.879518072289159</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="H54">
-            <v>-7.8887195121951352</v>
-          </cell>
-          <cell r="U54">
-            <v>81.445783132530124</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="H55">
-            <v>-8.4258904634239649</v>
-          </cell>
-          <cell r="U55">
-            <v>83.01204819277109</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="H56">
-            <v>-8.4258904634239649</v>
-          </cell>
-          <cell r="U56">
-            <v>84.578313253012041</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="H57">
-            <v>-8.5922516302263041</v>
-          </cell>
-          <cell r="U57">
-            <v>86.144578313253007</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="H58">
-            <v>-8.7591240875912302</v>
-          </cell>
-          <cell r="U58">
-            <v>87.710843373493972</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="H59">
-            <v>-8.8427527873894665</v>
-          </cell>
-          <cell r="U59">
-            <v>89.277108433734938</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="H60">
-            <v>-8.7591240875912302</v>
-          </cell>
-          <cell r="U60">
-            <v>90.843373493975903</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="H61">
-            <v>-8.8427527873894665</v>
-          </cell>
-          <cell r="U61">
-            <v>92.409638554216869</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="H62">
-            <v>-8.8427527873894665</v>
-          </cell>
-          <cell r="U62">
-            <v>93.975903614457835</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="H63">
-            <v>-9.1364687740940678</v>
-          </cell>
-          <cell r="U63">
-            <v>95.5421686746988</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="H64">
-            <v>-9.6436870642912531</v>
-          </cell>
-          <cell r="U64">
-            <v>97.108433734939766</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="H65">
-            <v>-9.8564221963523284</v>
-          </cell>
-          <cell r="U65">
-            <v>98.674698795180717</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="H66">
-            <v>-9.7712291585885911</v>
-          </cell>
-          <cell r="U66">
-            <v>100.24096385542168</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="H67">
-            <v>-9.3050193050193091</v>
-          </cell>
-          <cell r="U67">
-            <v>101.80722891566265</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="H68">
-            <v>-9.052388289676438</v>
-          </cell>
-          <cell r="U68">
-            <v>103.37349397590361</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="H69">
-            <v>-9.094412331406561</v>
-          </cell>
-          <cell r="U69">
-            <v>104.93975903614458</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="H70">
-            <v>-9.220679012345693</v>
-          </cell>
-          <cell r="U70">
-            <v>106.50602409638554</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="H71">
-            <v>-9.6436870642912531</v>
-          </cell>
-          <cell r="U71">
-            <v>108.07228915662651</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="H72">
-            <v>-9.9844599844599884</v>
-          </cell>
-          <cell r="U72">
-            <v>109.63855421686748</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="H73">
-            <v>-10.542756735650119</v>
-          </cell>
-          <cell r="U73">
-            <v>111.20481927710843</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="H74">
-            <v>-10.370370370370352</v>
-          </cell>
-          <cell r="U74">
-            <v>112.77108433734939</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="H75">
-            <v>-10.715682440359798</v>
-          </cell>
-          <cell r="U75">
-            <v>114.33734939759036</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="H76">
-            <v>-11.063162024323265</v>
-          </cell>
-          <cell r="U76">
-            <v>115.90361445783132</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="H77">
-            <v>-10.672400312744319</v>
-          </cell>
-          <cell r="U77">
-            <v>117.46987951807229</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="H78">
-            <v>-10.370370370370352</v>
-          </cell>
-          <cell r="U78">
-            <v>119.03614457831326</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="H79">
-            <v>-10.198520825223824</v>
-          </cell>
-          <cell r="U79">
-            <v>120.60240963855422</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="H80">
-            <v>-10.370370370370352</v>
-          </cell>
-          <cell r="U80">
-            <v>122.16867469879519</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="H81">
-            <v>-10.456496293406156</v>
-          </cell>
-          <cell r="U81">
-            <v>123.73493975903614</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="H82">
-            <v>-10.715682440359798</v>
-          </cell>
-          <cell r="U82">
-            <v>125.3012048192771</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="H83">
-            <v>-10.672400312744337</v>
-          </cell>
-          <cell r="U83">
-            <v>126.86746987951807</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="H84">
-            <v>-10.672400312744337</v>
-          </cell>
-          <cell r="U84">
-            <v>128.43373493975903</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
@@ -2302,7 +1622,7 @@
         <v>5.83</v>
       </c>
       <c r="G2">
-        <f>(A2+B2+C2+D2+E2)/5</f>
+        <f t="shared" ref="G2:G14" si="0">(A2+B2+C2+D2+E2)/5</f>
         <v>5.6840000000000002</v>
       </c>
       <c r="H2">
@@ -2310,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <f>V2*130/83</f>
+        <f t="shared" ref="U2:U14" si="1">V2*130/83</f>
         <v>0</v>
       </c>
       <c r="V2">
@@ -2334,15 +1654,15 @@
         <v>5.7</v>
       </c>
       <c r="G3">
-        <f>(A3+B3+C3+D3+E3)/5</f>
+        <f t="shared" si="0"/>
         <v>5.6275999999999993</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H14" si="0">100*(G3-5.684)/G3</f>
+        <f t="shared" ref="H3:H14" si="2">100*(G3-5.684)/G3</f>
         <v>-1.0022034259720112</v>
       </c>
       <c r="U3">
-        <f>V3*130/83</f>
+        <f t="shared" si="1"/>
         <v>10.963855421686747</v>
       </c>
       <c r="V3">
@@ -2366,15 +1686,15 @@
         <v>5.67</v>
       </c>
       <c r="G4">
-        <f>(A4+B4+C4+D4+E4)/5</f>
+        <f t="shared" si="0"/>
         <v>5.5660000000000007</v>
       </c>
       <c r="H4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-2.1200143729787895</v>
       </c>
       <c r="U4">
-        <f>V4*130/83</f>
+        <f t="shared" si="1"/>
         <v>21.927710843373493</v>
       </c>
       <c r="V4">
@@ -2398,15 +1718,15 @@
         <v>5.68</v>
       </c>
       <c r="G5">
-        <f>(A5+B5+C5+D5+E5)/5</f>
+        <f t="shared" si="0"/>
         <v>5.5280000000000005</v>
       </c>
       <c r="H5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-2.8219971056439883</v>
       </c>
       <c r="U5">
-        <f>V5*130/83</f>
+        <f t="shared" si="1"/>
         <v>32.891566265060241</v>
       </c>
       <c r="V5">
@@ -2430,15 +1750,15 @@
         <v>5.53</v>
       </c>
       <c r="G6">
-        <f>(A6+B6+C6+D6+E6)/5</f>
+        <f t="shared" si="0"/>
         <v>5.4680000000000009</v>
       </c>
       <c r="H6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-3.9502560351133735</v>
       </c>
       <c r="U6">
-        <f>V6*130/83</f>
+        <f t="shared" si="1"/>
         <v>43.855421686746986</v>
       </c>
       <c r="V6">
@@ -2462,15 +1782,15 @@
         <v>5.46</v>
       </c>
       <c r="G7">
-        <f>(A7+B7+C7+D7+E7)/5</f>
+        <f t="shared" si="0"/>
         <v>5.3940000000000001</v>
       </c>
       <c r="H7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-5.3763440860215059</v>
       </c>
       <c r="U7">
-        <f>V7*130/83</f>
+        <f t="shared" si="1"/>
         <v>54.819277108433738</v>
       </c>
       <c r="V7">
@@ -2494,15 +1814,15 @@
         <v>5.39</v>
       </c>
       <c r="G8">
-        <f>(A8+B8+C8+D8+E8)/5</f>
+        <f t="shared" si="0"/>
         <v>5.3280000000000003</v>
       </c>
       <c r="H8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-6.6816816816816793</v>
       </c>
       <c r="U8">
-        <f>V8*130/83</f>
+        <f t="shared" si="1"/>
         <v>65.783132530120483</v>
       </c>
       <c r="V8">
@@ -2526,15 +1846,15 @@
         <v>5.3</v>
       </c>
       <c r="G9">
-        <f>(A9+B9+C9+D9+E9)/5</f>
+        <f t="shared" si="0"/>
         <v>5.2940000000000005</v>
       </c>
       <c r="H9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-7.3668303740083054</v>
       </c>
       <c r="U9">
-        <f>V9*130/83</f>
+        <f t="shared" si="1"/>
         <v>76.746987951807228</v>
       </c>
       <c r="V9">
@@ -2558,15 +1878,15 @@
         <v>5.17</v>
       </c>
       <c r="G10">
-        <f>(A10+B10+C10+D10+E10)/5</f>
+        <f t="shared" si="0"/>
         <v>5.2060000000000004</v>
       </c>
       <c r="H10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-9.1817134076066029</v>
       </c>
       <c r="U10">
-        <f>V10*130/83</f>
+        <f t="shared" si="1"/>
         <v>87.710843373493972</v>
       </c>
       <c r="V10">
@@ -2590,15 +1910,15 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="G11">
-        <f>(A11+B11+C11+D11+E11)/5</f>
+        <f t="shared" si="0"/>
         <v>5.1840000000000002</v>
       </c>
       <c r="H11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-9.6450617283950617</v>
       </c>
       <c r="U11">
-        <f>V11*130/83</f>
+        <f t="shared" si="1"/>
         <v>98.674698795180717</v>
       </c>
       <c r="V11">
@@ -2622,15 +1942,15 @@
         <v>5.09</v>
       </c>
       <c r="G12">
-        <f>(A12+B12+C12+D12+E12)/5</f>
+        <f t="shared" si="0"/>
         <v>5.1479999999999997</v>
       </c>
       <c r="H12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-10.411810411810423</v>
       </c>
       <c r="U12">
-        <f>V12*130/83</f>
+        <f t="shared" si="1"/>
         <v>109.63855421686748</v>
       </c>
       <c r="V12">
@@ -2654,15 +1974,15 @@
         <v>5.13</v>
       </c>
       <c r="G13">
-        <f>(A13+B13+C13+D13+E13)/5</f>
+        <f t="shared" si="0"/>
         <v>5.1379999999999999</v>
       </c>
       <c r="H13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-10.62670299727521</v>
       </c>
       <c r="U13">
-        <f>V13*130/83</f>
+        <f t="shared" si="1"/>
         <v>120.60240963855422</v>
       </c>
       <c r="V13">
@@ -2686,15 +2006,15 @@
         <v>5.14</v>
       </c>
       <c r="G14">
-        <f>(A14+B14+C14+D14+E14)/5</f>
+        <f t="shared" si="0"/>
         <v>5.1159999999999997</v>
       </c>
       <c r="H14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-11.102423768569206</v>
       </c>
       <c r="U14">
-        <f>V14*130/83</f>
+        <f t="shared" si="1"/>
         <v>128.43373493975903</v>
       </c>
       <c r="V14">
